--- a/01_signal_production/Data_Generation_wRHC/Data_5K_13_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_wRHC/Data_5K_13_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -488,297 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.523</v>
+        <v>0.0001248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1146</v>
+        <v>2.767e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01174</v>
+        <v>7.306e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001978</v>
+        <v>2.21e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004435</v>
+        <v>7.259e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001175</v>
+        <v>2.556e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>3.54e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.162e-05</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.079e-06</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.499e-06</v>
+        <v>9.402e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.03</v>
+        <v>0.0004973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4606</v>
+        <v>0.0001105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0471</v>
+        <v>2.915e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007927</v>
+        <v>8.875000000000001e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001769</v>
+        <v>2.889e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004693</v>
+        <v>1.02e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001425</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.65e-05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.638e-05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.977e-06</v>
+        <v>3.763e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.06</v>
+        <v>0.001113</v>
       </c>
       <c r="C4" t="n">
-        <v>1.825</v>
+        <v>0.0002477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1879</v>
+        <v>6.558000000000001e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03166</v>
+        <v>2.003e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007087</v>
+        <v>6.537e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001885</v>
+        <v>2.3e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0001863</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.535e-05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.414e-05</v>
+        <v>8.412e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>0.00197</v>
       </c>
       <c r="C5" t="n">
-        <v>4.101</v>
+        <v>0.0004397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4235</v>
+        <v>0.0001174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0716</v>
+        <v>3.541e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01586</v>
+        <v>1.161e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00423</v>
+        <v>4.1e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001272</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0004176</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.000147</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.423e-05</v>
+        <v>1.508e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225.7</v>
+        <v>0.003065</v>
       </c>
       <c r="C6" t="n">
-        <v>7.352</v>
+        <v>0.0006887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7546</v>
+        <v>0.0001837</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1272</v>
+        <v>5.527e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02823</v>
+        <v>1.821e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007543</v>
+        <v>6.352e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002269</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0007404999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0002614</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.611e-05</v>
+        <v>2.334e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9</v>
+        <v>0.004477</v>
       </c>
       <c r="C7" t="n">
-        <v>11.39</v>
+        <v>0.0009961</v>
       </c>
       <c r="D7" t="n">
-        <v>1.179</v>
+        <v>0.0002641</v>
       </c>
       <c r="E7" t="n">
-        <v>0.198</v>
+        <v>7.868999999999999e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04424</v>
+        <v>2.617e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01177</v>
+        <v>9.133999999999999e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003543</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.001161</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0004078</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0001505</v>
+        <v>3.359e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>507.6</v>
+        <v>0.006077</v>
       </c>
       <c r="C8" t="n">
-        <v>16.56</v>
+        <v>0.001353</v>
       </c>
       <c r="D8" t="n">
-        <v>1.685</v>
+        <v>0.0003612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2845</v>
+        <v>0.0001096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0635</v>
+        <v>3.57e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.017</v>
+        <v>1.26e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00508</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.001669</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0005881</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0002167</v>
+        <v>4.626e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.007893000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001759</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0004723</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0001396</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.65e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.633e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.042e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.009974</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0005961</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0001793</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.848e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.061e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.654e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01239</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002765</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0007348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002196</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.169e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.541e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.41e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01493</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003332</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0008912</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0002658</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.794e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.088e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.132e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01785</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001058</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0003178</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0001038</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.667e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.35e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.004663</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001242</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0003707</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001226</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.318e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.582e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02434</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005378</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001445</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0004341</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.992e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.836e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.006213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001649</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0005008</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0001638</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.717e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.11e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03179</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.007101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001872</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0005646</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0001871</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.549e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.395e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03583</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008049000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.002131</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0006384</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0002106</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.349e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.699e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04017</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.008940999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.002377</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0007147</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.000232</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.352999999999999e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.044e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.04477</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.009937</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.002652</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0007988</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0002594</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.2e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.417e-05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04935</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01101</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002943</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0008883</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0002915</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0001021</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.774e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.05454</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01211</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.003251</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0009708</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0003214</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.000113</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.163e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.06053</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01344</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.003527</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001072</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0003525</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0001234</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.488e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.06575</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01454</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.003886</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001174</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0003878</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001343</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.99e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.07049</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01578</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.004261</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.000422</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000147</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.42e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.07711</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.004621</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001393</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0004531</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0001589</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.897e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.08396000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.004959</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001487</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0004892</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.000171</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.355e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09012000000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01996</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.005363</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001615</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0005308999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.000186</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.818e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.09765</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02156</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.005751</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001733</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0005710999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0001998</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.248e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02332</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.006219</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001843</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0006139</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0002161</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7.878e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1108</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02483</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.006623</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001981</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0006606</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0002289</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.475e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02649</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.002101</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0006995</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0002437</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9.066e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1263</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02814</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.007557</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.002247</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0007503</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0002619</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9.560000000000001e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1353</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02985</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.007998</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.002412</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000796</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0002793</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0001028</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03188</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.008487</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.002584</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0008339</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.000294</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0001087</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1518</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03369</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00899</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002713</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0008904</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0003112</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0001157</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1603</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.03572</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.009527000000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.002861</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0009412</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.000331</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0001223</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1688</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0373</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01005</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.003048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001006</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0003505</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.000128</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1789</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.04007</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01065</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.003211</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001043</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0003705</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0001359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1883</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01117</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.003372</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0003854</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0001445</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1992</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.04378</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01167</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.003552</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001164</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0004079</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2091</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.04601</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01232</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.003747</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001204</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0004286</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0001574</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2183</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.04862</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01311</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.00389</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001281</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0004515</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0001658</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05125</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01357</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.004101</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.001333</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0004671</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0001728</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2377</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.05296</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01419</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.004271</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0004894</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0001824</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.05595</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01493</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.004461</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0005165</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0001896</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.05864</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01551</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.004691</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001536</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0001987</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2735</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.06062</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.004848</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.001611</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0005609</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0002086</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.06393</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.005134</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001682</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0005883</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0002164</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2992</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01758</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.005322</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001741</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.000615</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0002271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3074</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.06836</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01834</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.005504</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00181</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.000638</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0002339</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3215</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.07111000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.005764</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.001892</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0006633</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0002446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3327</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.07412000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01997</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.006002</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001961</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0006926</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0002527</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.07768</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.02064</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.006234</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.002045</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0007169</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0002645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.08043</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.02139</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.006397</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.002128</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0007407</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0002727</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3729</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.08321000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.02225</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.006684</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.002191</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0007677</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0002831</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>689.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.304</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3863</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.08653</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02307</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.006966</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.002284</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0008009</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.000295</v>
+      <c r="B57" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.08663999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.02314</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.006927</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.002285</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0008058</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.000294</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1029</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.02292</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.006084</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.001827</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0006069</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0002133</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7.781e-05</v>
       </c>
     </row>
   </sheetData>
